--- a/tools/Controlli-Minimi-AGID/Controlli-minimi-AGID.xlsx
+++ b/tools/Controlli-Minimi-AGID/Controlli-minimi-AGID.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.ghirlanda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC3C841-CF49-4A47-89EC-2B05E889696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB222DE-B9D9-CD4E-AA7D-A3B2591D3720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="ig" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">req!$A$1:$G$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">req!$A$1:$G$318</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="315">
   <si>
     <t>assessable</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Controlli Minimi AGID</t>
-  </si>
-  <si>
-    <t>Misure minime di sicurezza ICT per le pubbliche amministrazioni.</t>
   </si>
   <si>
     <t>AGID</t>
@@ -972,6 +969,19 @@
   </si>
   <si>
     <t>Assicurare che la copia di un file fatta in modo autorizzato mantenga le limitazioni di accesso della sorgente,  ad esempio attraverso sistemi che implementino le regole di controllo degli accessi (e.g. Access Control List) anche quando i dati sono trasferiti al di fuori del loro repository.</t>
+  </si>
+  <si>
+    <t>atomikiss</t>
+  </si>
+  <si>
+    <t>Misure minime di sicurezza ICT per le pubbliche amministrazioni.
+https://www.agid.gov.it/sites/default/files/repository_files/documentazione/misure_minime_di_sicurezza_v.1.0.pdf</t>
+  </si>
+  <si>
+    <t>M,S,A</t>
+  </si>
+  <si>
+    <t>S,A</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1071,10 +1081,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1376,18 +1385,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699B1651-6DC7-1E43-A5B6-8EF15B32842F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1395,7 +1404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1427,47 +1436,47 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1483,15 +1492,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1529,7 +1538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1548,24 +1557,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView zoomScale="215" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="148.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="148.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1586,70 +1596,77 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
         <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1661,15 +1678,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
@@ -1678,15 +1695,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
@@ -1695,15 +1712,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D9" t="s">
         <v>117</v>
@@ -1712,15 +1729,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="D10" t="s">
         <v>118</v>
@@ -1729,15 +1746,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D11" t="s">
         <v>119</v>
@@ -1746,46 +1763,46 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
         <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1794,15 +1811,15 @@
         <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1811,2032 +1828,2139 @@
         <v>123</v>
       </c>
       <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-      <c r="F16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" t="s">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
         <v>132</v>
       </c>
       <c r="F26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8">
-        <v>2</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
-      <c r="F34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>313</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>313</v>
+      </c>
+      <c r="D52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>313</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>313</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>313</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>313</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D63" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" t="s">
+        <v>168</v>
+      </c>
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
         <v>28</v>
       </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="F42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D65" t="s">
+        <v>179</v>
+      </c>
+      <c r="F65" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>313</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8">
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" t="s">
+        <v>183</v>
+      </c>
+      <c r="F68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>314</v>
+      </c>
+      <c r="D71" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>313</v>
+      </c>
+      <c r="D74" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>313</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D77" t="s">
+        <v>201</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="F78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>314</v>
+      </c>
+      <c r="D81" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>313</v>
+      </c>
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" t="s">
+        <v>216</v>
+      </c>
+      <c r="F85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" t="s">
+        <v>217</v>
+      </c>
+      <c r="F86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8">
-        <v>2</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" s="9"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>313</v>
+      </c>
+      <c r="D90" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>314</v>
+      </c>
+      <c r="D92" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>314</v>
+      </c>
+      <c r="D93" t="s">
+        <v>225</v>
+      </c>
+      <c r="F93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
         <v>28</v>
       </c>
-      <c r="D48" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" t="s">
-        <v>159</v>
-      </c>
-      <c r="F57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>160</v>
-      </c>
-      <c r="F58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" t="s">
-        <v>161</v>
-      </c>
-      <c r="F59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s">
-        <v>162</v>
-      </c>
-      <c r="F60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>163</v>
-      </c>
-      <c r="F61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>165</v>
-      </c>
-      <c r="F63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
-      </c>
-      <c r="F64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8">
-        <v>1</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8">
-        <v>2</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" t="s">
-        <v>167</v>
-      </c>
-      <c r="F67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
-        <v>168</v>
-      </c>
-      <c r="F68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-      <c r="C69" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D94" t="s">
+        <v>226</v>
+      </c>
+      <c r="F94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>313</v>
+      </c>
+      <c r="D95" t="s">
+        <v>227</v>
+      </c>
+      <c r="F95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
         <v>28</v>
       </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D96" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>314</v>
+      </c>
+      <c r="D97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
         <v>28</v>
       </c>
-      <c r="D72" t="s">
-        <v>183</v>
-      </c>
-      <c r="F72" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" t="s">
-        <v>184</v>
-      </c>
-      <c r="F73" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" t="s">
-        <v>185</v>
-      </c>
-      <c r="F74" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" t="s">
-        <v>187</v>
-      </c>
-      <c r="F76" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" t="s">
-        <v>188</v>
-      </c>
-      <c r="F77" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" t="s">
-        <v>189</v>
-      </c>
-      <c r="F78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" t="s">
-        <v>200</v>
-      </c>
-      <c r="F80" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" t="s">
-        <v>201</v>
-      </c>
-      <c r="F81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" t="s">
-        <v>202</v>
-      </c>
-      <c r="F82" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" t="s">
-        <v>40</v>
-      </c>
-      <c r="D83" t="s">
-        <v>203</v>
-      </c>
-      <c r="F83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" t="s">
-        <v>204</v>
-      </c>
-      <c r="F84" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="B85">
-        <v>3</v>
-      </c>
-      <c r="C85" t="s">
-        <v>40</v>
-      </c>
-      <c r="D85" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-      <c r="C86" t="s">
-        <v>40</v>
-      </c>
-      <c r="D86" t="s">
-        <v>211</v>
-      </c>
-      <c r="F86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" t="s">
-        <v>214</v>
-      </c>
-      <c r="F87" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" t="s">
-        <v>215</v>
-      </c>
-      <c r="F88" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" t="s">
-        <v>216</v>
-      </c>
-      <c r="F89" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>40</v>
-      </c>
-      <c r="D90" t="s">
-        <v>217</v>
-      </c>
-      <c r="F90" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" t="s">
-        <v>219</v>
-      </c>
-      <c r="F92" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8">
-        <v>1</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8">
-        <v>2</v>
-      </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-      <c r="C95" t="s">
-        <v>39</v>
-      </c>
-      <c r="D95" t="s">
-        <v>222</v>
-      </c>
-      <c r="F95" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-      <c r="C96" t="s">
-        <v>39</v>
-      </c>
-      <c r="D96" t="s">
-        <v>223</v>
-      </c>
-      <c r="F96" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>3</v>
-      </c>
-      <c r="B97">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" t="s">
-        <v>224</v>
-      </c>
-      <c r="F97" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98" t="s">
-        <v>40</v>
-      </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F98" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>3</v>
       </c>
       <c r="B99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F99" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>3</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F100" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="D101" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F101" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>3</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" t="s">
+        <v>234</v>
+      </c>
+      <c r="F102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s">
+        <v>236</v>
+      </c>
+      <c r="F104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" t="s">
+        <v>237</v>
+      </c>
+      <c r="F105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>313</v>
+      </c>
+      <c r="D106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>313</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
+      </c>
+      <c r="F107" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>313</v>
+      </c>
+      <c r="D108" t="s">
+        <v>240</v>
+      </c>
+      <c r="F108" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>313</v>
+      </c>
+      <c r="D109" t="s">
+        <v>241</v>
+      </c>
+      <c r="F109" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" t="s">
+        <v>242</v>
+      </c>
+      <c r="F110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>314</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8">
+        <v>1</v>
+      </c>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>313</v>
+      </c>
+      <c r="D113" t="s">
+        <v>246</v>
+      </c>
+      <c r="F113" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
         <v>28</v>
       </c>
-      <c r="D102" t="s">
-        <v>229</v>
-      </c>
-      <c r="F102" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" t="s">
-        <v>230</v>
-      </c>
-      <c r="F103" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D114" t="s">
+        <v>247</v>
+      </c>
+      <c r="F114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
         <v>28</v>
       </c>
-      <c r="D104" t="s">
-        <v>231</v>
-      </c>
-      <c r="F104" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" t="s">
-        <v>232</v>
-      </c>
-      <c r="F105" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" t="s">
-        <v>233</v>
-      </c>
-      <c r="F106" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>3</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" t="s">
-        <v>234</v>
-      </c>
-      <c r="F107" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" t="s">
-        <v>235</v>
-      </c>
-      <c r="F108" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>3</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" t="s">
-        <v>236</v>
-      </c>
-      <c r="F109" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" t="s">
-        <v>237</v>
-      </c>
-      <c r="F110" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-      <c r="C111" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" t="s">
-        <v>238</v>
-      </c>
-      <c r="F111" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" t="s">
-        <v>239</v>
-      </c>
-      <c r="F112" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>3</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" t="s">
-        <v>240</v>
-      </c>
-      <c r="F113" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>39</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
-      </c>
-      <c r="F114" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>3</v>
-      </c>
-      <c r="B115">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>39</v>
-      </c>
       <c r="D115" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F115" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="D116" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F116" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>3</v>
       </c>
       <c r="B117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D117" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F117" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8">
-        <v>1</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>313</v>
+      </c>
+      <c r="D118" t="s">
+        <v>251</v>
+      </c>
+      <c r="F118" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E119" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>3</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="D120" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F120" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="D121" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>3</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F122" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>3</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D123" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F123" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>3</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F124" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>3</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D125" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8">
-        <v>1</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8">
-        <v>2</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>260</v>
+      </c>
+      <c r="F126" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>261</v>
+      </c>
+      <c r="F127" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F128" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>3</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>40</v>
+        <v>313</v>
       </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F129" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>3</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
       </c>
       <c r="D130" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F130" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>3</v>
-      </c>
-      <c r="B131">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" t="s">
-        <v>258</v>
-      </c>
-      <c r="F131" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>3</v>
-      </c>
-      <c r="B132">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>28</v>
-      </c>
-      <c r="D132" t="s">
-        <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>3</v>
-      </c>
-      <c r="B133">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>28</v>
-      </c>
-      <c r="D133" t="s">
-        <v>260</v>
-      </c>
-      <c r="F133" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>3</v>
-      </c>
-      <c r="B134">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>28</v>
-      </c>
-      <c r="D134" t="s">
-        <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>3</v>
-      </c>
-      <c r="B135">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135" t="s">
-        <v>262</v>
-      </c>
-      <c r="F135" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>3</v>
-      </c>
-      <c r="B136">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>28</v>
-      </c>
-      <c r="D136" t="s">
-        <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137" t="s">
-        <v>264</v>
-      </c>
-      <c r="F137" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>3</v>
-      </c>
-      <c r="B138">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>28</v>
-      </c>
-      <c r="D138" t="s">
-        <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>311</v>
-      </c>
-    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="146" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="147" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="148" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="149" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="151" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="152" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="153" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="154" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="155" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="156" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="157" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="158" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="159" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="160" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="161" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="162" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="163" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="165" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="166" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="167" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="168" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="169" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="170" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="171" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="172" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="173" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="174" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="175" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="176" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="177" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="178" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="180" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="182" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="183" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="184" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="185" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="186" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="187" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="188" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="189" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="190" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="193" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="194" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="196" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="197" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="198" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="200" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="201" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="202" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="203" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="204" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="205" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="206" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="207" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="208" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="209" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="210" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="211" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="212" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="213" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="214" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="215" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="216" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="217" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="218" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="219" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="220" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="221" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="222" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="223" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="224" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="225" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="226" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="227" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="228" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="229" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="230" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="231" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="232" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="233" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="234" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="235" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="236" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="237" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="238" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="239" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="240" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="241" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="242" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="243" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="244" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="245" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="246" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="247" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="248" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="249" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="250" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="251" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="252" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="253" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="254" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="255" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="256" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="257" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="258" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="259" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="260" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="261" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="262" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="263" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="264" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="265" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="266" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="267" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="268" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="269" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="270" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="271" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="272" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="273" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="274" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="275" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="276" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="277" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="278" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="279" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="280" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="281" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="282" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="283" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="284" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="285" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="286" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="287" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="288" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G326" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G318" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3851,13 +3975,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="161.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="161.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3868,59 +3992,59 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3936,12 +4060,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="140.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="140.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3952,37 +4076,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
